--- a/test-files/additional-sheet-test-files/two-column-sheets-missing-column-header.xlsx
+++ b/test-files/additional-sheet-test-files/two-column-sheets-missing-column-header.xlsx
@@ -5,14 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="production_rates" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="degradation_rates" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="threshold_b" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="optimized_production_rates" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="optimized_threshold_b" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="network_weights" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="network" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="wt_log2_expression" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="production_rates" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="degradation_rates" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="threshold_b" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="optimized_production_rates" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="optimized_threshold_b" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="optimization_parameters" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,65 +28,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="44">
+  <si>
+    <t xml:space="preserve">cols regulators/rows targets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIN5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWI4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWI5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YHP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAP1</t>
+  </si>
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">ACE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIN5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMO1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SFP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STB5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWI4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWI5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YHP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOX1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAP1</t>
+    <t xml:space="preserve">optimization_parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kk_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxIter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TolFun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxFunEval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TolX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production_function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigmoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimate_params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make_graphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expression_timepoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcin5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dgln3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhap4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhmo1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dzap1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simulation_timepoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saccharomyces cerevisiae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxon_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -112,13 +201,25 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,7 +256,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,7 +265,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -185,6 +298,2387 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.6139</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>-1.0689</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.1906</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>-0.398</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0.5827</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2" t="n">
+        <v>-0.3947</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>-0.6264</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0.3377</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0.817</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0.5566</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>-0.4357</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>-1.2497</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.3043</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>-0.9904</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>-0.2636</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>-0.382</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.4206</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>-0.4911</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>-0.1284</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>-0.7236</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>-1.3477</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>-1.0468</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>-1.0978</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>-0.9248</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>-0.1373</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>-0.0997</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1.2386</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1.3909</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>-0.4224</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.5461</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1.0285</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>1.2338</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>2.2159</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>2.1796</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0.8447</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>2.4687</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>1.4785</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.5064</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.8905</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>-0.1242</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>-1.1405</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.3837</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.8525</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.0988</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>-0.3273</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>-0.2982</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>-0.315</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>-0.5999</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>-0.9447</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>-0.3585</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>-1.3141</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.3939</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.1439</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>-0.5133</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-0.7004</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>-0.2467</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1.4085</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0.9733</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0.6504</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0.2025</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0.8924</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0.9007</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0.1953</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.5138</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1.9214</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>-0.8859</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>-2.6542</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>1.5184</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.2794</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>-2.5135</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>-1.1181</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0.2225</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>-1.0353</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>-0.2074</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>-1.8463</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.3058</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.2392</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1.8398</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1.2493</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>-0.9525</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>1.405</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>1.3109</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>1.2569</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>1.9007</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>1.4816</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>1.8391</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>2.2172</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>-1.0625</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.9246</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.1666</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>-0.2696</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0.9514</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0.1233</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>1.2802</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>-0.6808</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0.7634</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>1.3451</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0.8355</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>-0.1271</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.0307</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>2.1525</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1.2789</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>-0.4526</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.6917</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0.5342</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>2.2598</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>-0.9232</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0.8293</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>1.3828</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0.9004</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0.8888</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>-1.0367</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>-1.6758</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>-0.4986</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>-0.1274</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>-2.5269</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>-1.9189</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0.5443</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0.0845</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0.0407</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>-1.3691</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>-2.6627</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0.2028</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>-0.2748</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>-0.9286</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>-0.3651</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>-0.3278</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>-0.4798</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0.2047</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0.3222</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>-0.2377</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>-0.6369</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>-1.4226</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>-0.5294</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>0.2996</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>0.2812</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>-0.7675</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>-0.2033</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>-0.9106</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>-0.7234</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>-1.9049</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0.7854</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>-0.257</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>-0.1687</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>-1.0667</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0.1028</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>-0.0286</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>0.4798</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>0.097</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>-1.1269</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>-0.6676</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>-1.6964</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>-0.3496</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>1.2371</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0.9432</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>-0.3621</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>-1.8086</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>0.6617</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>0.6192</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>-0.725</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>-0.2025</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>-1.0587</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>-0.6402</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>-2.2532</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>-0.083</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>-1.6117</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>-0.104</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>-0.1487</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>-0.9394</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>-0.5901</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>-0.7222</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>-0.5117</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>0.6594</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0.6135</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.3238</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>-0.3712</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>1.4712</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>1.9049</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>-0.2354</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>-0.394</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>2.9606</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>3.5569</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>1.3863</v>
+      </c>
+      <c r="N16" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -200,7 +2694,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -255,7 +2749,7 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="4" t="n">
         <v>0.099</v>
       </c>
     </row>
@@ -279,7 +2773,7 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="4" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -334,7 +2828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -354,7 +2848,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,7 +2927,7 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="4" t="n">
         <v>0.07</v>
       </c>
     </row>
@@ -488,7 +2982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -506,7 +3000,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,15 +3134,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -658,7 +3152,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,15 +3286,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -810,7 +3304,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,4 +3436,234 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="10.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>559292</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>